--- a/GageTable_All.xlsx
+++ b/GageTable_All.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\DRAFT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8928BA-B726-412F-9D19-5EFA1CAA1290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AED5F46-B53E-4397-9C5E-7099DB149FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-90" windowWidth="38620" windowHeight="21080" xr2:uid="{537AAD5D-038D-4158-A401-D053F9117A77}"/>
+    <workbookView xWindow="-90" yWindow="20" windowWidth="19380" windowHeight="20950" xr2:uid="{537AAD5D-038D-4158-A401-D053F9117A77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="166">
   <si>
     <t>Gage</t>
   </si>
@@ -432,6 +432,108 @@
   </si>
   <si>
     <t>Main</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 05490600 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">05474000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iowa River at Oakville, IA </t>
+  </si>
+  <si>
+    <t>Des Moines River at St. Francisville, MO</t>
+  </si>
+  <si>
+    <t>Skunk River at Augusta, IA</t>
+  </si>
+  <si>
+    <t>05495000</t>
+  </si>
+  <si>
+    <t>Fox River at Wayland, MO</t>
+  </si>
+  <si>
+    <t>Wyaconda River above Canton, MO</t>
+  </si>
+  <si>
+    <t>05496000</t>
+  </si>
+  <si>
+    <t>05497150</t>
+  </si>
+  <si>
+    <t>North Fabius River near Ewing, MO</t>
+  </si>
+  <si>
+    <t>05495500</t>
+  </si>
+  <si>
+    <t>BEAR CREEK NEAR MARCELLINE, IL</t>
+  </si>
+  <si>
+    <t>05500000</t>
+  </si>
+  <si>
+    <t>South Fabius River near Taylor, MO</t>
+  </si>
+  <si>
+    <t>05420500</t>
+  </si>
+  <si>
+    <t>Mississippi River at Clinton, IA </t>
+  </si>
+  <si>
+    <t>05383075</t>
+  </si>
+  <si>
+    <t>LA Crosse River Near LA Crosse, WI</t>
+  </si>
+  <si>
+    <t>05378500</t>
+  </si>
+  <si>
+    <t>Mississippi River at Winona, MN</t>
+  </si>
+  <si>
+    <t>05543500</t>
+  </si>
+  <si>
+    <t>ILLINOIS RIVER AT MARSEILLES, IL</t>
+  </si>
+  <si>
+    <t>05558300</t>
+  </si>
+  <si>
+    <t>Illinois River at Henry, IL</t>
+  </si>
+  <si>
+    <t>05555300</t>
+  </si>
+  <si>
+    <t>Vermilion River Near Leonore, IL</t>
+  </si>
+  <si>
+    <t>05568000</t>
+  </si>
+  <si>
+    <t>Mackinaw River Near Green Valley, IL</t>
+  </si>
+  <si>
+    <t>05568500</t>
+  </si>
+  <si>
+    <t>Illinois River at Kingston Mines, IL</t>
+  </si>
+  <si>
+    <t>05583000</t>
+  </si>
+  <si>
+    <t>Sangamon River Near Oakford, IL </t>
   </si>
 </sst>
 </file>
@@ -482,7 +584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -494,11 +596,19 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -509,6 +619,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF5C45FB-54EE-4D8A-AB4B-FE4C0FFCAA3F}" name="Table1" displayName="Table1" ref="A1:F61" totalsRowShown="0">
+  <autoFilter ref="A1:F61" xr:uid="{AF5C45FB-54EE-4D8A-AB4B-FE4C0FFCAA3F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F61">
+    <sortCondition ref="D2:D61"/>
+    <sortCondition ref="C2:C61"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{8EA15143-D9FE-4777-A723-E3ED1DD5767A}" name="Gage"/>
+    <tableColumn id="2" xr3:uid="{9A2B4FA0-6AF5-485B-88CF-8F6E9426C43E}" name="FullName" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{668F469E-CA0D-4986-958C-C6F93CED35B4}" name="RiverMile" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{B080FAB8-ECAC-423F-8BD2-356FDACF4B2A}" name="River"/>
+    <tableColumn id="5" xr3:uid="{30BAB8DA-B203-4E0B-A937-150EA2B0DC02}" name="GageType"/>
+    <tableColumn id="6" xr3:uid="{F5B3299E-765A-4A3E-9CA4-A66643F4E487}" name="Column1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -828,20 +957,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0574D8B-9E50-40DF-8B17-DB7E83DDCAFC}">
-  <dimension ref="A1:F61"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="1"/>
+    <col min="3" max="3" width="10.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.90625" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -857,646 +989,802 @@
       <c r="E1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="1">
+        <v>80.2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="1">
+        <v>80.2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="1">
+        <v>83.75</v>
+      </c>
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="1">
+        <v>88.9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="1">
+        <v>119.55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="1">
+        <v>120.55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="1">
+        <v>145.4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="1">
+        <v>157.9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="1">
+        <v>157.9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="1">
+        <v>164.6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="1">
+        <v>196</v>
+      </c>
+      <c r="D12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="2">
+        <v>224.7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="1">
+        <v>226.4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="1">
+        <v>231.1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="1">
+        <v>231.1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="1">
+        <v>239.75</v>
+      </c>
+      <c r="D17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" t="s">
+        <v>112</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="J17" t="s">
+        <v>153</v>
+      </c>
+      <c r="K17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="1">
+        <v>244.5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J18" t="s">
+        <v>151</v>
+      </c>
+      <c r="K18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="1">
+        <v>244.5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" t="s">
+        <v>131</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="J19" t="s">
+        <v>149</v>
+      </c>
+      <c r="K19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="1">
+        <v>263.10000000000002</v>
+      </c>
+      <c r="D20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" t="s">
+        <v>131</v>
+      </c>
+      <c r="I20">
+        <v>5465700</v>
+      </c>
+      <c r="J20" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="1">
+        <v>272.85000000000002</v>
+      </c>
+      <c r="D21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" t="s">
+        <v>113</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="J21" t="s">
+        <v>137</v>
+      </c>
+      <c r="K21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" t="s">
+        <v>131</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="J22" t="s">
+        <v>136</v>
+      </c>
+      <c r="K22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" t="s">
+        <v>131</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="J23" t="s">
+        <v>139</v>
+      </c>
+      <c r="K23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" t="s">
+        <v>131</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J24" t="s">
+        <v>140</v>
+      </c>
+      <c r="K24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" t="s">
+        <v>131</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J25" t="s">
+        <v>143</v>
+      </c>
+      <c r="K25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" t="s">
+        <v>131</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="J26" t="s">
+        <v>145</v>
+      </c>
+      <c r="K26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B27" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C27" s="1">
         <v>88.6</v>
       </c>
-      <c r="D2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="D27" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" t="s">
+        <v>131</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J27" t="s">
+        <v>147</v>
+      </c>
+      <c r="K27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="3">
+        <v>301.3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" t="s">
+        <v>131</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="J28" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="3">
+        <v>301.3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" t="s">
+        <v>131</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="J29" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="1">
+        <v>309</v>
+      </c>
+      <c r="D30" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" t="s">
+        <v>131</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="J30" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="3">
+        <v>325</v>
+      </c>
+      <c r="D31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" t="s">
+        <v>131</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="J31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="3">
+        <v>325</v>
+      </c>
+      <c r="D32" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" t="s">
+        <v>131</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="J32" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="3">
+        <v>327</v>
+      </c>
+      <c r="D33" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" t="s">
+        <v>131</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="J33" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="3">
+        <v>343.3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="3">
+        <v>343.3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="1">
+        <v>352.9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="3">
+        <v>364.3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="3">
+        <v>364.3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B39" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C39" s="1">
         <v>403.2</v>
       </c>
-      <c r="D3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="1">
-        <v>511.8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="1">
-        <v>579.9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="1">
-        <v>463.5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="1">
-        <v>352.9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="1">
-        <v>119.55</v>
-      </c>
-      <c r="D9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="1">
-        <v>309</v>
-      </c>
-      <c r="D10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="1">
-        <v>196</v>
-      </c>
-      <c r="D11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="1">
-        <v>244.5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="1">
-        <v>244.5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="1">
-        <v>231.1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="1">
-        <v>231.1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="1">
-        <v>157.9</v>
-      </c>
-      <c r="D20" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="1">
-        <v>157.9</v>
-      </c>
-      <c r="D21" t="s">
-        <v>95</v>
-      </c>
-      <c r="E21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="1">
-        <v>80.2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="1">
-        <v>80.2</v>
-      </c>
-      <c r="D23" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="1">
-        <v>427.4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" s="1">
-        <v>145.4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>95</v>
-      </c>
-      <c r="E25" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="2">
-        <v>224.7</v>
-      </c>
-      <c r="D26" t="s">
-        <v>95</v>
-      </c>
-      <c r="E26" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="3">
-        <v>583</v>
-      </c>
-      <c r="D27" t="s">
-        <v>97</v>
-      </c>
-      <c r="E27" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="3">
-        <v>583</v>
-      </c>
-      <c r="D28" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="3">
-        <v>556.70000000000005</v>
-      </c>
-      <c r="D29" t="s">
-        <v>97</v>
-      </c>
-      <c r="E29" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="3">
-        <v>556.70000000000005</v>
-      </c>
-      <c r="D30" t="s">
-        <v>97</v>
-      </c>
-      <c r="E30" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="3">
-        <v>522.5</v>
-      </c>
-      <c r="D31" t="s">
-        <v>97</v>
-      </c>
-      <c r="E31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" s="3">
-        <v>522.5</v>
-      </c>
-      <c r="D32" t="s">
-        <v>97</v>
-      </c>
-      <c r="E32" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="3">
-        <v>493.3</v>
-      </c>
-      <c r="D33" t="s">
-        <v>97</v>
-      </c>
-      <c r="E33" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" s="3">
-        <v>493.3</v>
-      </c>
-      <c r="D34" t="s">
-        <v>97</v>
-      </c>
-      <c r="E34" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="3">
-        <v>483</v>
-      </c>
-      <c r="D35" t="s">
-        <v>97</v>
-      </c>
-      <c r="E35" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" s="3">
-        <v>483</v>
-      </c>
-      <c r="D36" t="s">
-        <v>97</v>
-      </c>
-      <c r="E36" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="3">
-        <v>457.3</v>
-      </c>
-      <c r="D37" t="s">
-        <v>97</v>
-      </c>
-      <c r="E37" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" s="3">
-        <v>457.3</v>
-      </c>
-      <c r="D38" t="s">
-        <v>97</v>
-      </c>
-      <c r="E38" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="3">
-        <v>437.2</v>
-      </c>
       <c r="D39" t="s">
         <v>97</v>
       </c>
@@ -1504,15 +1792,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C40" s="3">
-        <v>437.2</v>
+        <v>410.6</v>
       </c>
       <c r="D40" t="s">
         <v>97</v>
@@ -1521,12 +1809,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C41" s="3">
         <v>410.6</v>
@@ -1538,15 +1826,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" s="3">
-        <v>410.6</v>
+        <v>103</v>
+      </c>
+      <c r="C42" s="1">
+        <v>427.4</v>
       </c>
       <c r="D42" t="s">
         <v>97</v>
@@ -1555,15 +1843,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C43" s="3">
-        <v>364.3</v>
+        <v>437.2</v>
       </c>
       <c r="D43" t="s">
         <v>97</v>
@@ -1572,15 +1860,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C44" s="3">
-        <v>364.3</v>
+        <v>437.2</v>
       </c>
       <c r="D44" t="s">
         <v>97</v>
@@ -1589,15 +1877,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C45" s="3">
-        <v>343.3</v>
+        <v>106</v>
+      </c>
+      <c r="C45" s="1">
+        <v>452.94</v>
       </c>
       <c r="D45" t="s">
         <v>97</v>
@@ -1606,15 +1894,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C46" s="3">
-        <v>343.3</v>
+        <v>457.3</v>
       </c>
       <c r="D46" t="s">
         <v>97</v>
@@ -1623,15 +1911,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C47" s="3">
-        <v>325</v>
+        <v>457.3</v>
       </c>
       <c r="D47" t="s">
         <v>97</v>
@@ -1640,15 +1928,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C48" s="3">
-        <v>325</v>
+        <v>8</v>
+      </c>
+      <c r="B48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="1">
+        <v>463.5</v>
       </c>
       <c r="D48" t="s">
         <v>97</v>
@@ -1659,30 +1947,33 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C49" s="3">
-        <v>301.3</v>
+        <v>123</v>
+      </c>
+      <c r="C49" s="1">
+        <v>479.1</v>
       </c>
       <c r="D49" t="s">
         <v>97</v>
       </c>
       <c r="E49" t="s">
-        <v>131</v>
+        <v>109</v>
+      </c>
+      <c r="F49" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C50" s="3">
-        <v>301.3</v>
+        <v>483</v>
       </c>
       <c r="D50" t="s">
         <v>97</v>
@@ -1693,16 +1984,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C51" s="1">
-        <v>263.10000000000002</v>
+        <v>89</v>
+      </c>
+      <c r="C51" s="3">
+        <v>483</v>
       </c>
       <c r="D51" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E51" t="s">
         <v>131</v>
@@ -1710,13 +2001,13 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C52" s="1">
-        <v>452.94</v>
+        <v>72</v>
+      </c>
+      <c r="C52" s="3">
+        <v>493.3</v>
       </c>
       <c r="D52" t="s">
         <v>97</v>
@@ -1727,16 +2018,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C53" s="1">
-        <v>164.6</v>
+        <v>88</v>
+      </c>
+      <c r="C53" s="3">
+        <v>493.3</v>
       </c>
       <c r="D53" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E53" t="s">
         <v>131</v>
@@ -1744,13 +2035,13 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C54" s="3">
-        <v>327</v>
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" s="1">
+        <v>511.8</v>
       </c>
       <c r="D54" t="s">
         <v>97</v>
@@ -1761,146 +2052,129 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C55" s="1">
-        <v>239.75</v>
+        <v>71</v>
+      </c>
+      <c r="C55" s="3">
+        <v>522.5</v>
       </c>
       <c r="D55" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C56" s="1">
-        <v>272.85000000000002</v>
+        <v>87</v>
+      </c>
+      <c r="C56" s="3">
+        <v>522.5</v>
       </c>
       <c r="D56" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C57" s="1">
-        <v>83.75</v>
+        <v>69</v>
+      </c>
+      <c r="C57" s="3">
+        <v>556.70000000000005</v>
       </c>
       <c r="D57" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E57" t="s">
-        <v>109</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C58" s="1">
-        <v>479.1</v>
+        <v>70</v>
+      </c>
+      <c r="C58" s="3">
+        <v>556.70000000000005</v>
       </c>
       <c r="D58" t="s">
         <v>97</v>
       </c>
       <c r="E58" t="s">
-        <v>109</v>
-      </c>
-      <c r="F58" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>124</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>116</v>
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>96</v>
       </c>
       <c r="C59" s="1">
-        <v>88.9</v>
+        <v>579.9</v>
       </c>
       <c r="D59" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E59" t="s">
-        <v>109</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C60" s="1">
-        <v>120.55</v>
+        <v>67</v>
+      </c>
+      <c r="C60" s="3">
+        <v>583</v>
       </c>
       <c r="D60" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E60" t="s">
-        <v>109</v>
-      </c>
-      <c r="F60" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C61" s="1">
-        <v>226.4</v>
+        <v>68</v>
+      </c>
+      <c r="C61" s="3">
+        <v>583</v>
       </c>
       <c r="D61" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E61" t="s">
-        <v>109</v>
-      </c>
-      <c r="F61" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>